--- a/대전 이사/TDL.xlsx
+++ b/대전 이사/TDL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\Finance\대전 이사\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeon\Desktop\GitHub\Finance\대전 이사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D454387-D179-4614-84F5-166F998F7BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6EFEA4-7A0C-47A4-9A51-139ED7A1F9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{6C934BBC-0256-43B5-A97B-B5804C5A5EAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{6C934BBC-0256-43B5-A97B-B5804C5A5EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -448,19 +448,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,7 +703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,104 +1033,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1144,13 +1140,12 @@
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1165,15 +1160,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF2D45-6844-4A68-B02A-DA38A1B45F5D}">
   <dimension ref="A2:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.58203125" customWidth="1"/>
     <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1181,13 +1176,13 @@
       <c r="J2" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1227,7 +1222,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="E12">
@@ -1239,16 +1234,16 @@
     </row>
     <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>61</v>
       </c>
       <c r="E15">
@@ -1259,13 +1254,13 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16">
@@ -1276,13 +1271,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
       <c r="E17">
@@ -1293,13 +1288,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>61</v>
       </c>
       <c r="E18">
@@ -1319,16 +1314,16 @@
       <c r="G25" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>49</v>
       </c>
       <c r="E27">
@@ -1342,10 +1337,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>49</v>
       </c>
       <c r="E28">
@@ -1359,16 +1354,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>53</v>
       </c>
       <c r="E30">
@@ -1379,16 +1374,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>57</v>
       </c>
       <c r="E32">
